--- a/Site_Class_Report.xlsx
+++ b/Site_Class_Report.xlsx
@@ -78,7 +78,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -89,6 +89,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF59D"/>
+        <bgColor rgb="00FFF59D"/>
       </patternFill>
     </fill>
   </fills>
@@ -212,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -272,6 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,6 +675,9 @@
           <t xml:space="preserve">Weighted Average Shear Wave Velocity VS = </t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>393.5334879869455</v>
+      </c>
       <c r="N3" s="10">
         <f>AL17</f>
         <v/>
@@ -689,7 +699,11 @@
           <t>Site Class =</t>
         </is>
       </c>
-      <c r="D4" s="1" t="n"/>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="E4" s="1" t="n"/>
       <c r="F4" s="1" t="n"/>
       <c r="G4" s="17">
@@ -844,422 +858,212 @@
       <c r="AN10" s="23" t="n"/>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="B11" s="14" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="C11" s="20" t="n"/>
-      <c r="D11" s="21" t="n"/>
-      <c r="E11" s="5" t="n">
+      <c r="E11" t="n">
         <v>1.375</v>
       </c>
-      <c r="F11" s="20" t="n"/>
-      <c r="G11" s="20" t="n"/>
-      <c r="H11" s="21" t="n"/>
-      <c r="I11" s="5" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Saturated Sands</t>
         </is>
       </c>
-      <c r="J11" s="20" t="n"/>
-      <c r="K11" s="20" t="n"/>
-      <c r="L11" s="20" t="n"/>
-      <c r="M11" s="21" t="n"/>
-      <c r="N11" s="5" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="O11" s="20" t="n"/>
-      <c r="P11" s="21" t="n"/>
-      <c r="Q11" s="5" t="n">
+      <c r="Q11" t="n">
         <v>100</v>
       </c>
-      <c r="R11" s="20" t="n"/>
-      <c r="S11" s="21" t="n"/>
-      <c r="T11" s="5" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>80[(N1)60i]^0.4</t>
         </is>
       </c>
-      <c r="U11" s="20" t="n"/>
-      <c r="V11" s="20" t="n"/>
-      <c r="W11" s="20" t="n"/>
-      <c r="X11" s="21" t="n"/>
-      <c r="Y11" s="5" t="n">
+      <c r="Y11" t="n">
         <v>504.7658755841547</v>
       </c>
-      <c r="Z11" s="20" t="n"/>
-      <c r="AA11" s="21" t="n"/>
-      <c r="AB11" s="5" t="n">
+      <c r="AB11" t="n">
         <v>0.002724035174542538</v>
       </c>
-      <c r="AC11" s="20" t="n"/>
-      <c r="AD11" s="20" t="n"/>
-      <c r="AE11" s="21" t="n"/>
-      <c r="AG11" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AH11" s="20" t="n"/>
-      <c r="AI11" s="21" t="n"/>
-      <c r="AJ11" s="5" t="inlineStr">
-        <is>
-          <t>VS ≥ 1500</t>
-        </is>
-      </c>
-      <c r="AK11" s="20" t="n"/>
-      <c r="AL11" s="20" t="n"/>
-      <c r="AM11" s="20" t="n"/>
-      <c r="AN11" s="21" t="n"/>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="B12" s="14" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Layer 2</t>
         </is>
       </c>
-      <c r="C12" s="20" t="n"/>
-      <c r="D12" s="21" t="n"/>
-      <c r="E12" s="5" t="n">
+      <c r="E12" t="n">
         <v>3.2</v>
       </c>
-      <c r="F12" s="20" t="n"/>
-      <c r="G12" s="20" t="n"/>
-      <c r="H12" s="21" t="n"/>
-      <c r="I12" s="5" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Saturated Sands</t>
         </is>
       </c>
-      <c r="J12" s="20" t="n"/>
-      <c r="K12" s="20" t="n"/>
-      <c r="L12" s="20" t="n"/>
-      <c r="M12" s="21" t="n"/>
-      <c r="N12" s="5" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="O12" s="20" t="n"/>
-      <c r="P12" s="21" t="n"/>
-      <c r="Q12" s="5" t="n">
+      <c r="Q12" t="n">
         <v>15</v>
       </c>
-      <c r="R12" s="20" t="n"/>
-      <c r="S12" s="21" t="n"/>
-      <c r="T12" s="5" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>80[(N1)60i]^0.3</t>
         </is>
       </c>
-      <c r="U12" s="20" t="n"/>
-      <c r="V12" s="20" t="n"/>
-      <c r="W12" s="20" t="n"/>
-      <c r="X12" s="21" t="n"/>
-      <c r="Y12" s="5" t="n">
+      <c r="Y12" t="n">
         <v>180.2674704674124</v>
       </c>
-      <c r="Z12" s="20" t="n"/>
-      <c r="AA12" s="21" t="n"/>
-      <c r="AB12" s="5" t="n">
+      <c r="AB12" t="n">
         <v>0.017751400137267</v>
       </c>
-      <c r="AC12" s="20" t="n"/>
-      <c r="AD12" s="20" t="n"/>
-      <c r="AE12" s="21" t="n"/>
-      <c r="AG12" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="AH12" s="20" t="n"/>
-      <c r="AI12" s="21" t="n"/>
-      <c r="AJ12" s="5" t="inlineStr">
-        <is>
-          <t>760 ≤ VS &lt; 1500</t>
-        </is>
-      </c>
-      <c r="AK12" s="20" t="n"/>
-      <c r="AL12" s="20" t="n"/>
-      <c r="AM12" s="20" t="n"/>
-      <c r="AN12" s="21" t="n"/>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="B13" s="14" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Layer 3</t>
         </is>
       </c>
-      <c r="C13" s="20" t="n"/>
-      <c r="D13" s="21" t="n"/>
-      <c r="E13" s="5" t="n">
+      <c r="E13" t="n">
         <v>2.5</v>
       </c>
-      <c r="F13" s="20" t="n"/>
-      <c r="G13" s="20" t="n"/>
-      <c r="H13" s="21" t="n"/>
-      <c r="I13" s="5" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Dry Sands</t>
         </is>
       </c>
-      <c r="J13" s="20" t="n"/>
-      <c r="K13" s="20" t="n"/>
-      <c r="L13" s="20" t="n"/>
-      <c r="M13" s="21" t="n"/>
-      <c r="N13" s="5" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="O13" s="20" t="n"/>
-      <c r="P13" s="21" t="n"/>
-      <c r="Q13" s="5" t="n">
+      <c r="Q13" t="n">
         <v>67</v>
       </c>
-      <c r="R13" s="20" t="n"/>
-      <c r="S13" s="21" t="n"/>
-      <c r="T13" s="5" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>80[(N1)60i]^0.5</t>
         </is>
       </c>
-      <c r="U13" s="20" t="n"/>
-      <c r="V13" s="20" t="n"/>
-      <c r="W13" s="20" t="n"/>
-      <c r="X13" s="21" t="n"/>
-      <c r="Y13" s="5" t="n">
+      <c r="Y13" t="n">
         <v>654.8282217497961</v>
       </c>
-      <c r="Z13" s="20" t="n"/>
-      <c r="AA13" s="21" t="n"/>
-      <c r="AB13" s="5" t="n">
+      <c r="AB13" t="n">
         <v>0.003817795136134538</v>
       </c>
-      <c r="AC13" s="20" t="n"/>
-      <c r="AD13" s="20" t="n"/>
-      <c r="AE13" s="21" t="n"/>
-      <c r="AG13" s="6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AH13" s="20" t="n"/>
-      <c r="AI13" s="21" t="n"/>
-      <c r="AJ13" s="6" t="inlineStr">
-        <is>
-          <t>360 ≤ VS &lt; 760</t>
-        </is>
-      </c>
-      <c r="AK13" s="20" t="n"/>
-      <c r="AL13" s="20" t="n"/>
-      <c r="AM13" s="20" t="n"/>
-      <c r="AN13" s="21" t="n"/>
+      <c r="AG13" s="25" t="n"/>
+      <c r="AH13" s="25" t="n"/>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="B14" s="14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Layer 4</t>
         </is>
       </c>
-      <c r="C14" s="20" t="n"/>
-      <c r="D14" s="21" t="n"/>
-      <c r="E14" s="5" t="n">
+      <c r="E14" t="n">
         <v>4</v>
       </c>
-      <c r="F14" s="20" t="n"/>
-      <c r="G14" s="20" t="n"/>
-      <c r="H14" s="21" t="n"/>
-      <c r="I14" s="5" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Dry Sands</t>
         </is>
       </c>
-      <c r="J14" s="20" t="n"/>
-      <c r="K14" s="20" t="n"/>
-      <c r="L14" s="20" t="n"/>
-      <c r="M14" s="21" t="n"/>
-      <c r="N14" s="5" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="O14" s="20" t="n"/>
-      <c r="P14" s="21" t="n"/>
-      <c r="Q14" s="5" t="n">
+      <c r="Q14" t="n">
         <v>53</v>
       </c>
-      <c r="R14" s="20" t="n"/>
-      <c r="S14" s="21" t="n"/>
-      <c r="T14" s="5" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>80[(N1)60i]^0.3</t>
         </is>
       </c>
-      <c r="U14" s="20" t="n"/>
-      <c r="V14" s="20" t="n"/>
-      <c r="W14" s="20" t="n"/>
-      <c r="X14" s="21" t="n"/>
-      <c r="Y14" s="5" t="n">
+      <c r="Y14" t="n">
         <v>263.2526477095353</v>
       </c>
-      <c r="Z14" s="20" t="n"/>
-      <c r="AA14" s="21" t="n"/>
-      <c r="AB14" s="5" t="n">
+      <c r="AB14" t="n">
         <v>0.01519452903817885</v>
       </c>
-      <c r="AC14" s="20" t="n"/>
-      <c r="AD14" s="20" t="n"/>
-      <c r="AE14" s="21" t="n"/>
-      <c r="AG14" s="5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AH14" s="20" t="n"/>
-      <c r="AI14" s="21" t="n"/>
-      <c r="AJ14" s="5" t="inlineStr">
-        <is>
-          <t>180 ≤ VS &lt; 360</t>
-        </is>
-      </c>
-      <c r="AK14" s="20" t="n"/>
-      <c r="AL14" s="20" t="n"/>
-      <c r="AM14" s="20" t="n"/>
-      <c r="AN14" s="21" t="n"/>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="B15" s="14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Layer 5</t>
         </is>
       </c>
-      <c r="C15" s="20" t="n"/>
-      <c r="D15" s="21" t="n"/>
-      <c r="E15" s="5" t="n">
+      <c r="E15" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="20" t="n"/>
-      <c r="G15" s="20" t="n"/>
-      <c r="H15" s="21" t="n"/>
-      <c r="I15" s="5" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Clays</t>
         </is>
       </c>
-      <c r="J15" s="20" t="n"/>
-      <c r="K15" s="20" t="n"/>
-      <c r="L15" s="20" t="n"/>
-      <c r="M15" s="21" t="n"/>
-      <c r="N15" s="5" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" s="20" t="n"/>
-      <c r="P15" s="21" t="n"/>
-      <c r="Q15" s="5" t="n">
+      <c r="Q15" t="n">
         <v>25</v>
       </c>
-      <c r="R15" s="20" t="n"/>
-      <c r="S15" s="21" t="n"/>
-      <c r="T15" s="5" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>80[(N1)60i]^0.3</t>
         </is>
       </c>
-      <c r="U15" s="20" t="n"/>
-      <c r="V15" s="20" t="n"/>
-      <c r="W15" s="20" t="n"/>
-      <c r="X15" s="21" t="n"/>
-      <c r="Y15" s="5" t="n">
+      <c r="Y15" t="n">
         <v>210.1222243523014</v>
       </c>
-      <c r="Z15" s="20" t="n"/>
-      <c r="AA15" s="21" t="n"/>
-      <c r="AB15" s="5" t="n">
+      <c r="AB15" t="n">
         <v>0.02855480908073818</v>
       </c>
-      <c r="AC15" s="20" t="n"/>
-      <c r="AD15" s="20" t="n"/>
-      <c r="AE15" s="21" t="n"/>
-      <c r="AG15" s="5" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AH15" s="20" t="n"/>
-      <c r="AI15" s="21" t="n"/>
-      <c r="AJ15" s="5" t="inlineStr">
-        <is>
-          <t>VS ≤ 180</t>
-        </is>
-      </c>
-      <c r="AK15" s="20" t="n"/>
-      <c r="AL15" s="20" t="n"/>
-      <c r="AM15" s="20" t="n"/>
-      <c r="AN15" s="21" t="n"/>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="B16" s="14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Layer 6</t>
         </is>
       </c>
-      <c r="C16" s="20" t="n"/>
-      <c r="D16" s="21" t="n"/>
-      <c r="E16" s="5" t="n">
+      <c r="E16" t="n">
         <v>10.925</v>
       </c>
-      <c r="F16" s="20" t="n"/>
-      <c r="G16" s="20" t="n"/>
-      <c r="H16" s="21" t="n"/>
-      <c r="I16" s="5" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Others</t>
         </is>
       </c>
-      <c r="J16" s="20" t="n"/>
-      <c r="K16" s="20" t="n"/>
-      <c r="L16" s="20" t="n"/>
-      <c r="M16" s="21" t="n"/>
-      <c r="N16" s="5" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" s="20" t="n"/>
-      <c r="P16" s="21" t="n"/>
-      <c r="Q16" s="5" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="R16" s="20" t="n"/>
-      <c r="S16" s="21" t="n"/>
-      <c r="T16" s="5" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="U16" s="20" t="n"/>
-      <c r="V16" s="20" t="n"/>
-      <c r="W16" s="20" t="n"/>
-      <c r="X16" s="21" t="n"/>
-      <c r="Y16" s="5" t="n">
+      <c r="Y16" t="n">
         <v>3515.5</v>
       </c>
-      <c r="Z16" s="20" t="n"/>
-      <c r="AA16" s="21" t="n"/>
-      <c r="AB16" s="5" t="n">
+      <c r="AB16" t="n">
         <v>0.003107666050348457</v>
       </c>
-      <c r="AC16" s="20" t="n"/>
-      <c r="AD16" s="20" t="n"/>
-      <c r="AE16" s="21" t="n"/>
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="B17" s="5" t="inlineStr">
@@ -1270,7 +1074,7 @@
       <c r="C17" s="20" t="n"/>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="5">
-        <f>SUM(E11:H16)</f>
+        <f>SUM(E11:E16)</f>
         <v/>
       </c>
       <c r="F17" s="20" t="n"/>
@@ -1284,7 +1088,7 @@
       <c r="Z17" s="20" t="n"/>
       <c r="AA17" s="21" t="n"/>
       <c r="AB17" s="5">
-        <f>SUM(AB11:AE16)</f>
+        <f>SUM(AB11:AB16)</f>
         <v/>
       </c>
       <c r="AC17" s="20" t="n"/>
@@ -1296,7 +1100,7 @@
         </is>
       </c>
       <c r="AL17" s="8" t="n">
-        <v>393.5334879869455</v>
+        <v>393.5335</v>
       </c>
       <c r="AN17" s="3" t="inlineStr">
         <is>
@@ -1310,10 +1114,8 @@
           <t>\</t>
         </is>
       </c>
-      <c r="AH18" s="7" t="inlineStr">
-        <is>
-          <t>Site Class =</t>
-        </is>
+      <c r="AH18" s="7" t="n">
+        <v>393.5334879869455</v>
       </c>
       <c r="AM18" s="11" t="inlineStr">
         <is>
@@ -1321,6 +1123,14 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="20"/>
     <row r="21" ht="18" customHeight="1">
       <c r="AM21" s="1" t="n"/>
     </row>

--- a/Site_Class_Report.xlsx
+++ b/Site_Class_Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="30600" yWindow="1140" windowWidth="38640" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="3960" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Site Class Report" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -55,14 +55,6 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <vertAlign val="superscript"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <sz val="8"/>
       <scheme val="minor"/>
     </font>
@@ -78,7 +70,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -93,12 +85,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF59D"/>
-        <bgColor rgb="00FFF59D"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -131,23 +129,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -172,6 +163,26 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -214,11 +225,12 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -232,53 +244,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,15 +671,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN21"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BJ28" sqref="BJ28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="AM26" sqref="AM26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="3.33203125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="3.26953125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col width="3.33203125" customWidth="1" style="2" min="1" max="16384"/>
+    <col width="3.26953125" customWidth="1" style="2" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -672,15 +699,11 @@
     <row r="3" ht="18" customHeight="1">
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weighted Average Shear Wave Velocity VS = </t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>393.5334879869455</v>
-      </c>
-      <c r="N3" s="10">
-        <f>AL17</f>
-        <v/>
+          <t>Weighted Average Shear Wave Velocity Vₛ</t>
+        </is>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>200.951</v>
       </c>
       <c r="Q3" s="2" t="inlineStr">
         <is>
@@ -689,7 +712,7 @@
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>\</t>
         </is>
@@ -699,20 +722,17 @@
           <t>Site Class =</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="D4" s="1" t="n"/>
       <c r="E4" s="1" t="n"/>
       <c r="F4" s="1" t="n"/>
-      <c r="G4" s="17">
-        <f>AM18</f>
-        <v/>
-      </c>
-      <c r="N4" s="10" t="n"/>
-      <c r="O4" s="10" t="n"/>
-      <c r="P4" s="10" t="n"/>
+      <c r="G4" s="15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N4" s="11" t="n"/>
+      <c r="O4" s="11" t="n"/>
+      <c r="P4" s="11" t="n"/>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="B6" s="3" t="inlineStr">
@@ -722,13 +742,13 @@
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="16" t="inlineStr">
         <is>
           <t>Depth of Influence =</t>
         </is>
       </c>
-      <c r="H7" s="10" t="n">
-        <v>28</v>
+      <c r="H7" s="11" t="n">
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
@@ -737,486 +757,1862 @@
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="B9" s="13" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>Soil Layers</t>
         </is>
       </c>
-      <c r="C9" s="18" t="n"/>
-      <c r="D9" s="19" t="n"/>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>Thickness (ti)</t>
-        </is>
-      </c>
-      <c r="F9" s="20" t="n"/>
-      <c r="G9" s="20" t="n"/>
-      <c r="H9" s="21" t="n"/>
-      <c r="I9" s="5" t="inlineStr">
+      <c r="C9" s="21" t="n"/>
+      <c r="D9" s="22" t="n"/>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>Thickmess (tᵢ)</t>
+        </is>
+      </c>
+      <c r="F9" s="23" t="n"/>
+      <c r="G9" s="23" t="n"/>
+      <c r="H9" s="24" t="n"/>
+      <c r="I9" s="7" t="inlineStr">
         <is>
           <t>Soil Type</t>
         </is>
       </c>
-      <c r="J9" s="18" t="n"/>
-      <c r="K9" s="18" t="n"/>
-      <c r="L9" s="18" t="n"/>
-      <c r="M9" s="19" t="n"/>
-      <c r="N9" s="13" t="inlineStr">
+      <c r="J9" s="21" t="n"/>
+      <c r="K9" s="21" t="n"/>
+      <c r="L9" s="21" t="n"/>
+      <c r="M9" s="22" t="n"/>
+      <c r="N9" s="14" t="inlineStr">
         <is>
           <t>Fines &lt; 15%</t>
         </is>
       </c>
-      <c r="O9" s="18" t="n"/>
-      <c r="P9" s="19" t="n"/>
-      <c r="Q9" s="5" t="inlineStr">
-        <is>
-          <t>(N1)60i</t>
-        </is>
-      </c>
-      <c r="R9" s="20" t="n"/>
-      <c r="S9" s="21" t="n"/>
-      <c r="T9" s="5" t="inlineStr">
-        <is>
-          <t>Shear Wave Velocity VSi</t>
-        </is>
-      </c>
-      <c r="U9" s="20" t="n"/>
-      <c r="V9" s="20" t="n"/>
-      <c r="W9" s="20" t="n"/>
-      <c r="X9" s="20" t="n"/>
-      <c r="Y9" s="20" t="n"/>
-      <c r="Z9" s="20" t="n"/>
-      <c r="AA9" s="21" t="n"/>
-      <c r="AB9" s="5" t="inlineStr">
-        <is>
-          <t>ti / VSi</t>
-        </is>
-      </c>
-      <c r="AC9" s="18" t="n"/>
-      <c r="AD9" s="18" t="n"/>
-      <c r="AE9" s="19" t="n"/>
-      <c r="AG9" s="16" t="inlineStr">
+      <c r="O9" s="21" t="n"/>
+      <c r="P9" s="22" t="n"/>
+      <c r="Q9" s="7" t="inlineStr">
+        <is>
+          <t>(N₁)₆₀ᵢ</t>
+        </is>
+      </c>
+      <c r="R9" s="23" t="n"/>
+      <c r="S9" s="24" t="n"/>
+      <c r="T9" s="7" t="inlineStr">
+        <is>
+          <t>Shear Wave Velocity Vₛᵢ</t>
+        </is>
+      </c>
+      <c r="U9" s="23" t="n"/>
+      <c r="V9" s="23" t="n"/>
+      <c r="W9" s="23" t="n"/>
+      <c r="X9" s="23" t="n"/>
+      <c r="Y9" s="23" t="n"/>
+      <c r="Z9" s="23" t="n"/>
+      <c r="AA9" s="24" t="n"/>
+      <c r="AB9" s="7" t="inlineStr">
+        <is>
+          <t>tᵢ/Vₛᵢ</t>
+        </is>
+      </c>
+      <c r="AC9" s="21" t="n"/>
+      <c r="AD9" s="21" t="n"/>
+      <c r="AE9" s="22" t="n"/>
+      <c r="AG9" s="9" t="inlineStr">
         <is>
           <t>Table 4 - Site Classes for estimating normalised PSA</t>
         </is>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="B10" s="22" t="n"/>
-      <c r="C10" s="23" t="n"/>
-      <c r="D10" s="24" t="n"/>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="B10" s="25" t="n"/>
+      <c r="C10" s="26" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="7" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="F10" s="20" t="n"/>
-      <c r="G10" s="20" t="n"/>
-      <c r="H10" s="21" t="n"/>
-      <c r="I10" s="22" t="n"/>
-      <c r="J10" s="23" t="n"/>
-      <c r="K10" s="23" t="n"/>
-      <c r="L10" s="23" t="n"/>
-      <c r="M10" s="24" t="n"/>
-      <c r="N10" s="22" t="n"/>
-      <c r="O10" s="23" t="n"/>
-      <c r="P10" s="24" t="n"/>
-      <c r="Q10" s="5" t="inlineStr">
+      <c r="F10" s="23" t="n"/>
+      <c r="G10" s="23" t="n"/>
+      <c r="H10" s="24" t="n"/>
+      <c r="I10" s="25" t="n"/>
+      <c r="J10" s="26" t="n"/>
+      <c r="K10" s="26" t="n"/>
+      <c r="L10" s="26" t="n"/>
+      <c r="M10" s="27" t="n"/>
+      <c r="N10" s="25" t="n"/>
+      <c r="O10" s="26" t="n"/>
+      <c r="P10" s="27" t="n"/>
+      <c r="Q10" s="7" t="inlineStr">
         <is>
           <t>Nos.</t>
         </is>
       </c>
-      <c r="R10" s="20" t="n"/>
-      <c r="S10" s="21" t="n"/>
-      <c r="T10" s="5" t="inlineStr">
+      <c r="R10" s="23" t="n"/>
+      <c r="S10" s="24" t="n"/>
+      <c r="T10" s="7" t="inlineStr">
         <is>
           <t>Formula</t>
         </is>
       </c>
-      <c r="U10" s="20" t="n"/>
-      <c r="V10" s="20" t="n"/>
-      <c r="W10" s="20" t="n"/>
-      <c r="X10" s="21" t="n"/>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="U10" s="23" t="n"/>
+      <c r="V10" s="23" t="n"/>
+      <c r="W10" s="23" t="n"/>
+      <c r="X10" s="24" t="n"/>
+      <c r="Y10" s="7" t="inlineStr">
         <is>
           <t>m/s</t>
         </is>
       </c>
-      <c r="Z10" s="20" t="n"/>
-      <c r="AA10" s="21" t="n"/>
-      <c r="AB10" s="22" t="n"/>
-      <c r="AC10" s="23" t="n"/>
-      <c r="AD10" s="23" t="n"/>
-      <c r="AE10" s="24" t="n"/>
-      <c r="AG10" s="23" t="n"/>
-      <c r="AH10" s="23" t="n"/>
-      <c r="AI10" s="23" t="n"/>
-      <c r="AJ10" s="23" t="n"/>
-      <c r="AK10" s="23" t="n"/>
-      <c r="AL10" s="23" t="n"/>
-      <c r="AM10" s="23" t="n"/>
-      <c r="AN10" s="23" t="n"/>
+      <c r="Z10" s="23" t="n"/>
+      <c r="AA10" s="24" t="n"/>
+      <c r="AB10" s="25" t="n"/>
+      <c r="AC10" s="26" t="n"/>
+      <c r="AD10" s="26" t="n"/>
+      <c r="AE10" s="27" t="n"/>
+      <c r="AG10" s="26" t="n"/>
+      <c r="AH10" s="26" t="n"/>
+      <c r="AI10" s="26" t="n"/>
+      <c r="AJ10" s="26" t="n"/>
+      <c r="AK10" s="26" t="n"/>
+      <c r="AL10" s="26" t="n"/>
+      <c r="AM10" s="26" t="n"/>
+      <c r="AN10" s="26" t="n"/>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Layer 1</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1.375</v>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="B11" s="20" t="inlineStr">
+        <is>
+          <t>Layer_1</t>
+        </is>
+      </c>
+      <c r="C11" s="23" t="n"/>
+      <c r="D11" s="24" t="n"/>
+      <c r="E11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23" t="n"/>
+      <c r="G11" s="23" t="n"/>
+      <c r="H11" s="24" t="n"/>
+      <c r="I11" s="14" t="inlineStr">
         <is>
           <t>Saturated Sands</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="J11" s="23" t="n"/>
+      <c r="K11" s="23" t="n"/>
+      <c r="L11" s="23" t="n"/>
+      <c r="M11" s="24" t="n"/>
+      <c r="N11" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v>100</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>80[(N1)60i]^0.4</t>
-        </is>
-      </c>
-      <c r="Y11" t="n">
-        <v>504.7658755841547</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0.002724035174542538</v>
-      </c>
+      <c r="O11" s="23" t="n"/>
+      <c r="P11" s="24" t="n"/>
+      <c r="Q11" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R11" s="23" t="n"/>
+      <c r="S11" s="24" t="n"/>
+      <c r="T11" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U11" s="23" t="n"/>
+      <c r="V11" s="23" t="n"/>
+      <c r="W11" s="23" t="n"/>
+      <c r="X11" s="24" t="n"/>
+      <c r="Y11" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z11" s="23" t="n"/>
+      <c r="AA11" s="24" t="n"/>
+      <c r="AB11" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC11" s="23" t="n"/>
+      <c r="AD11" s="23" t="n"/>
+      <c r="AE11" s="24" t="n"/>
+      <c r="AG11" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AH11" s="23" t="n"/>
+      <c r="AI11" s="24" t="n"/>
+      <c r="AJ11" s="7" t="inlineStr">
+        <is>
+          <t>VS ≥ 1500</t>
+        </is>
+      </c>
+      <c r="AK11" s="23" t="n"/>
+      <c r="AL11" s="23" t="n"/>
+      <c r="AM11" s="23" t="n"/>
+      <c r="AN11" s="24" t="n"/>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="B12" s="20" t="inlineStr">
+        <is>
+          <t>Layer_2</t>
+        </is>
+      </c>
+      <c r="C12" s="23" t="n"/>
+      <c r="D12" s="24" t="n"/>
+      <c r="E12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="23" t="n"/>
+      <c r="G12" s="23" t="n"/>
+      <c r="H12" s="24" t="n"/>
+      <c r="I12" s="14" t="inlineStr">
         <is>
           <t>Saturated Sands</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>15</v>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>80[(N1)60i]^0.3</t>
-        </is>
-      </c>
-      <c r="Y12" t="n">
-        <v>180.2674704674124</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0.017751400137267</v>
-      </c>
+      <c r="J12" s="23" t="n"/>
+      <c r="K12" s="23" t="n"/>
+      <c r="L12" s="23" t="n"/>
+      <c r="M12" s="24" t="n"/>
+      <c r="N12" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O12" s="23" t="n"/>
+      <c r="P12" s="24" t="n"/>
+      <c r="Q12" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" s="23" t="n"/>
+      <c r="S12" s="24" t="n"/>
+      <c r="T12" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U12" s="23" t="n"/>
+      <c r="V12" s="23" t="n"/>
+      <c r="W12" s="23" t="n"/>
+      <c r="X12" s="24" t="n"/>
+      <c r="Y12" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z12" s="23" t="n"/>
+      <c r="AA12" s="24" t="n"/>
+      <c r="AB12" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC12" s="23" t="n"/>
+      <c r="AD12" s="23" t="n"/>
+      <c r="AE12" s="24" t="n"/>
+      <c r="AG12" s="7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AH12" s="23" t="n"/>
+      <c r="AI12" s="24" t="n"/>
+      <c r="AJ12" s="7" t="inlineStr">
+        <is>
+          <t>760 ≤ VS &lt; 1500</t>
+        </is>
+      </c>
+      <c r="AK12" s="23" t="n"/>
+      <c r="AL12" s="23" t="n"/>
+      <c r="AM12" s="23" t="n"/>
+      <c r="AN12" s="24" t="n"/>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Layer 3</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Dry Sands</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="B13" s="20" t="inlineStr">
+        <is>
+          <t>Layer_3</t>
+        </is>
+      </c>
+      <c r="C13" s="23" t="n"/>
+      <c r="D13" s="24" t="n"/>
+      <c r="E13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23" t="n"/>
+      <c r="G13" s="23" t="n"/>
+      <c r="H13" s="24" t="n"/>
+      <c r="I13" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J13" s="23" t="n"/>
+      <c r="K13" s="23" t="n"/>
+      <c r="L13" s="23" t="n"/>
+      <c r="M13" s="24" t="n"/>
+      <c r="N13" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v>67</v>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>80[(N1)60i]^0.5</t>
-        </is>
-      </c>
-      <c r="Y13" t="n">
-        <v>654.8282217497961</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0.003817795136134538</v>
-      </c>
-      <c r="AG13" s="25" t="n"/>
-      <c r="AH13" s="25" t="n"/>
+      <c r="O13" s="23" t="n"/>
+      <c r="P13" s="24" t="n"/>
+      <c r="Q13" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R13" s="23" t="n"/>
+      <c r="S13" s="24" t="n"/>
+      <c r="T13" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U13" s="23" t="n"/>
+      <c r="V13" s="23" t="n"/>
+      <c r="W13" s="23" t="n"/>
+      <c r="X13" s="24" t="n"/>
+      <c r="Y13" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z13" s="23" t="n"/>
+      <c r="AA13" s="24" t="n"/>
+      <c r="AB13" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC13" s="23" t="n"/>
+      <c r="AD13" s="23" t="n"/>
+      <c r="AE13" s="24" t="n"/>
+      <c r="AG13" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AH13" s="23" t="n"/>
+      <c r="AI13" s="24" t="n"/>
+      <c r="AJ13" s="7" t="inlineStr">
+        <is>
+          <t>360 ≤ VS &lt; 760</t>
+        </is>
+      </c>
+      <c r="AK13" s="23" t="n"/>
+      <c r="AL13" s="23" t="n"/>
+      <c r="AM13" s="23" t="n"/>
+      <c r="AN13" s="24" t="n"/>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Layer 4</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Dry Sands</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>53</v>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>80[(N1)60i]^0.3</t>
-        </is>
-      </c>
-      <c r="Y14" t="n">
-        <v>263.2526477095353</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.01519452903817885</v>
-      </c>
+      <c r="B14" s="20" t="inlineStr">
+        <is>
+          <t>Layer_4</t>
+        </is>
+      </c>
+      <c r="C14" s="23" t="n"/>
+      <c r="D14" s="24" t="n"/>
+      <c r="E14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23" t="n"/>
+      <c r="G14" s="23" t="n"/>
+      <c r="H14" s="24" t="n"/>
+      <c r="I14" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J14" s="23" t="n"/>
+      <c r="K14" s="23" t="n"/>
+      <c r="L14" s="23" t="n"/>
+      <c r="M14" s="24" t="n"/>
+      <c r="N14" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O14" s="23" t="n"/>
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R14" s="23" t="n"/>
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U14" s="23" t="n"/>
+      <c r="V14" s="23" t="n"/>
+      <c r="W14" s="23" t="n"/>
+      <c r="X14" s="24" t="n"/>
+      <c r="Y14" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z14" s="23" t="n"/>
+      <c r="AA14" s="24" t="n"/>
+      <c r="AB14" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC14" s="23" t="n"/>
+      <c r="AD14" s="23" t="n"/>
+      <c r="AE14" s="24" t="n"/>
+      <c r="AG14" s="28" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH14" s="23" t="n"/>
+      <c r="AI14" s="24" t="n"/>
+      <c r="AJ14" s="28" t="inlineStr">
+        <is>
+          <t>180 ≤ VS &lt; 360</t>
+        </is>
+      </c>
+      <c r="AK14" s="23" t="n"/>
+      <c r="AL14" s="23" t="n"/>
+      <c r="AM14" s="23" t="n"/>
+      <c r="AN14" s="24" t="n"/>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Layer 5</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>6</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Clays</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>25</v>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>80[(N1)60i]^0.3</t>
-        </is>
-      </c>
-      <c r="Y15" t="n">
-        <v>210.1222243523014</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.02855480908073818</v>
-      </c>
+      <c r="B15" s="20" t="inlineStr">
+        <is>
+          <t>Layer_5</t>
+        </is>
+      </c>
+      <c r="C15" s="23" t="n"/>
+      <c r="D15" s="24" t="n"/>
+      <c r="E15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23" t="n"/>
+      <c r="G15" s="23" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J15" s="23" t="n"/>
+      <c r="K15" s="23" t="n"/>
+      <c r="L15" s="23" t="n"/>
+      <c r="M15" s="24" t="n"/>
+      <c r="N15" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O15" s="23" t="n"/>
+      <c r="P15" s="24" t="n"/>
+      <c r="Q15" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" s="23" t="n"/>
+      <c r="S15" s="24" t="n"/>
+      <c r="T15" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U15" s="23" t="n"/>
+      <c r="V15" s="23" t="n"/>
+      <c r="W15" s="23" t="n"/>
+      <c r="X15" s="24" t="n"/>
+      <c r="Y15" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z15" s="23" t="n"/>
+      <c r="AA15" s="24" t="n"/>
+      <c r="AB15" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC15" s="23" t="n"/>
+      <c r="AD15" s="23" t="n"/>
+      <c r="AE15" s="24" t="n"/>
+      <c r="AG15" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AH15" s="23" t="n"/>
+      <c r="AI15" s="24" t="n"/>
+      <c r="AJ15" s="7" t="inlineStr">
+        <is>
+          <t>VS ≤ 180</t>
+        </is>
+      </c>
+      <c r="AK15" s="23" t="n"/>
+      <c r="AL15" s="23" t="n"/>
+      <c r="AM15" s="23" t="n"/>
+      <c r="AN15" s="24" t="n"/>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Layer 6</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>10.925</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y16" t="n">
-        <v>3515.5</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.003107666050348457</v>
-      </c>
+      <c r="B16" s="20" t="inlineStr">
+        <is>
+          <t>Layer_6</t>
+        </is>
+      </c>
+      <c r="C16" s="23" t="n"/>
+      <c r="D16" s="24" t="n"/>
+      <c r="E16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="23" t="n"/>
+      <c r="G16" s="23" t="n"/>
+      <c r="H16" s="24" t="n"/>
+      <c r="I16" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J16" s="23" t="n"/>
+      <c r="K16" s="23" t="n"/>
+      <c r="L16" s="23" t="n"/>
+      <c r="M16" s="24" t="n"/>
+      <c r="N16" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O16" s="23" t="n"/>
+      <c r="P16" s="24" t="n"/>
+      <c r="Q16" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R16" s="23" t="n"/>
+      <c r="S16" s="24" t="n"/>
+      <c r="T16" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U16" s="23" t="n"/>
+      <c r="V16" s="23" t="n"/>
+      <c r="W16" s="23" t="n"/>
+      <c r="X16" s="24" t="n"/>
+      <c r="Y16" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z16" s="23" t="n"/>
+      <c r="AA16" s="24" t="n"/>
+      <c r="AB16" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC16" s="23" t="n"/>
+      <c r="AD16" s="23" t="n"/>
+      <c r="AE16" s="24" t="n"/>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Σti =</t>
-        </is>
-      </c>
-      <c r="C17" s="20" t="n"/>
-      <c r="D17" s="21" t="n"/>
-      <c r="E17" s="5">
-        <f>SUM(E11:E16)</f>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>Layer_7</t>
+        </is>
+      </c>
+      <c r="C17" s="23" t="n"/>
+      <c r="D17" s="24" t="n"/>
+      <c r="E17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23" t="n"/>
+      <c r="G17" s="23" t="n"/>
+      <c r="H17" s="24" t="n"/>
+      <c r="I17" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J17" s="23" t="n"/>
+      <c r="K17" s="23" t="n"/>
+      <c r="L17" s="23" t="n"/>
+      <c r="M17" s="24" t="n"/>
+      <c r="N17" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O17" s="23" t="n"/>
+      <c r="P17" s="24" t="n"/>
+      <c r="Q17" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R17" s="23" t="n"/>
+      <c r="S17" s="24" t="n"/>
+      <c r="T17" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U17" s="23" t="n"/>
+      <c r="V17" s="23" t="n"/>
+      <c r="W17" s="23" t="n"/>
+      <c r="X17" s="24" t="n"/>
+      <c r="Y17" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z17" s="23" t="n"/>
+      <c r="AA17" s="24" t="n"/>
+      <c r="AB17" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC17" s="23" t="n"/>
+      <c r="AD17" s="23" t="n"/>
+      <c r="AE17" s="24" t="n"/>
+      <c r="AG17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vₛ = Σtᵢ / Σ(tᵢ / Vₛᵢ) = </t>
+        </is>
+      </c>
+      <c r="AL17" s="10">
+        <f>N3</f>
         <v/>
       </c>
-      <c r="F17" s="20" t="n"/>
-      <c r="G17" s="20" t="n"/>
-      <c r="H17" s="21" t="n"/>
-      <c r="Y17" s="5" t="inlineStr">
-        <is>
-          <t>Σ(ti / VSi) =</t>
-        </is>
-      </c>
-      <c r="Z17" s="20" t="n"/>
-      <c r="AA17" s="21" t="n"/>
-      <c r="AB17" s="5">
-        <f>SUM(AB11:AB16)</f>
+      <c r="AN17" s="3" t="inlineStr">
+        <is>
+          <t>m/s</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1">
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>Layer_8</t>
+        </is>
+      </c>
+      <c r="C18" s="23" t="n"/>
+      <c r="D18" s="24" t="n"/>
+      <c r="E18" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="23" t="n"/>
+      <c r="G18" s="23" t="n"/>
+      <c r="H18" s="24" t="n"/>
+      <c r="I18" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J18" s="23" t="n"/>
+      <c r="K18" s="23" t="n"/>
+      <c r="L18" s="23" t="n"/>
+      <c r="M18" s="24" t="n"/>
+      <c r="N18" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O18" s="23" t="n"/>
+      <c r="P18" s="24" t="n"/>
+      <c r="Q18" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R18" s="23" t="n"/>
+      <c r="S18" s="24" t="n"/>
+      <c r="T18" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U18" s="23" t="n"/>
+      <c r="V18" s="23" t="n"/>
+      <c r="W18" s="23" t="n"/>
+      <c r="X18" s="24" t="n"/>
+      <c r="Y18" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z18" s="23" t="n"/>
+      <c r="AA18" s="24" t="n"/>
+      <c r="AB18" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC18" s="23" t="n"/>
+      <c r="AD18" s="23" t="n"/>
+      <c r="AE18" s="24" t="n"/>
+      <c r="AG18" s="5" t="inlineStr">
+        <is>
+          <t>\</t>
+        </is>
+      </c>
+      <c r="AH18" s="13" t="inlineStr">
+        <is>
+          <t>Site Class =</t>
+        </is>
+      </c>
+      <c r="AM18" s="12">
+        <f>G4</f>
         <v/>
       </c>
-      <c r="AC17" s="20" t="n"/>
-      <c r="AD17" s="20" t="n"/>
-      <c r="AE17" s="21" t="n"/>
-      <c r="AG17" s="2" t="inlineStr">
-        <is>
-          <t>VS = Σti / Σ(ti / VSi) =</t>
-        </is>
-      </c>
-      <c r="AL17" s="8" t="n">
-        <v>393.5335</v>
-      </c>
-      <c r="AN17" s="3" t="inlineStr">
-        <is>
-          <t>m/s</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="18" customHeight="1">
-      <c r="AG18" s="9" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
-      <c r="AH18" s="7" t="n">
-        <v>393.5334879869455</v>
-      </c>
-      <c r="AM18" s="11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="20"/>
+    </row>
+    <row r="19" ht="18" customHeight="1">
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>Layer_9</t>
+        </is>
+      </c>
+      <c r="C19" s="23" t="n"/>
+      <c r="D19" s="24" t="n"/>
+      <c r="E19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="23" t="n"/>
+      <c r="G19" s="23" t="n"/>
+      <c r="H19" s="24" t="n"/>
+      <c r="I19" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J19" s="23" t="n"/>
+      <c r="K19" s="23" t="n"/>
+      <c r="L19" s="23" t="n"/>
+      <c r="M19" s="24" t="n"/>
+      <c r="N19" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O19" s="23" t="n"/>
+      <c r="P19" s="24" t="n"/>
+      <c r="Q19" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R19" s="23" t="n"/>
+      <c r="S19" s="24" t="n"/>
+      <c r="T19" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U19" s="23" t="n"/>
+      <c r="V19" s="23" t="n"/>
+      <c r="W19" s="23" t="n"/>
+      <c r="X19" s="24" t="n"/>
+      <c r="Y19" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z19" s="23" t="n"/>
+      <c r="AA19" s="24" t="n"/>
+      <c r="AB19" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC19" s="23" t="n"/>
+      <c r="AD19" s="23" t="n"/>
+      <c r="AE19" s="24" t="n"/>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="B20" s="14" t="inlineStr">
+        <is>
+          <t>Layer_10</t>
+        </is>
+      </c>
+      <c r="C20" s="23" t="n"/>
+      <c r="D20" s="24" t="n"/>
+      <c r="E20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="23" t="n"/>
+      <c r="G20" s="23" t="n"/>
+      <c r="H20" s="24" t="n"/>
+      <c r="I20" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J20" s="23" t="n"/>
+      <c r="K20" s="23" t="n"/>
+      <c r="L20" s="23" t="n"/>
+      <c r="M20" s="24" t="n"/>
+      <c r="N20" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O20" s="23" t="n"/>
+      <c r="P20" s="24" t="n"/>
+      <c r="Q20" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R20" s="23" t="n"/>
+      <c r="S20" s="24" t="n"/>
+      <c r="T20" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U20" s="23" t="n"/>
+      <c r="V20" s="23" t="n"/>
+      <c r="W20" s="23" t="n"/>
+      <c r="X20" s="24" t="n"/>
+      <c r="Y20" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z20" s="23" t="n"/>
+      <c r="AA20" s="24" t="n"/>
+      <c r="AB20" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC20" s="23" t="n"/>
+      <c r="AD20" s="23" t="n"/>
+      <c r="AE20" s="24" t="n"/>
+    </row>
     <row r="21" ht="18" customHeight="1">
+      <c r="B21" s="14" t="inlineStr">
+        <is>
+          <t>Layer_11</t>
+        </is>
+      </c>
+      <c r="C21" s="23" t="n"/>
+      <c r="D21" s="24" t="n"/>
+      <c r="E21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="23" t="n"/>
+      <c r="G21" s="23" t="n"/>
+      <c r="H21" s="24" t="n"/>
+      <c r="I21" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J21" s="23" t="n"/>
+      <c r="K21" s="23" t="n"/>
+      <c r="L21" s="23" t="n"/>
+      <c r="M21" s="24" t="n"/>
+      <c r="N21" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O21" s="23" t="n"/>
+      <c r="P21" s="24" t="n"/>
+      <c r="Q21" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" s="23" t="n"/>
+      <c r="S21" s="24" t="n"/>
+      <c r="T21" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U21" s="23" t="n"/>
+      <c r="V21" s="23" t="n"/>
+      <c r="W21" s="23" t="n"/>
+      <c r="X21" s="24" t="n"/>
+      <c r="Y21" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z21" s="23" t="n"/>
+      <c r="AA21" s="24" t="n"/>
+      <c r="AB21" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC21" s="23" t="n"/>
+      <c r="AD21" s="23" t="n"/>
+      <c r="AE21" s="24" t="n"/>
       <c r="AM21" s="1" t="n"/>
     </row>
+    <row r="22" ht="18" customHeight="1">
+      <c r="B22" s="14" t="inlineStr">
+        <is>
+          <t>Layer_12</t>
+        </is>
+      </c>
+      <c r="C22" s="23" t="n"/>
+      <c r="D22" s="24" t="n"/>
+      <c r="E22" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="23" t="n"/>
+      <c r="G22" s="23" t="n"/>
+      <c r="H22" s="24" t="n"/>
+      <c r="I22" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J22" s="23" t="n"/>
+      <c r="K22" s="23" t="n"/>
+      <c r="L22" s="23" t="n"/>
+      <c r="M22" s="24" t="n"/>
+      <c r="N22" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O22" s="23" t="n"/>
+      <c r="P22" s="24" t="n"/>
+      <c r="Q22" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R22" s="23" t="n"/>
+      <c r="S22" s="24" t="n"/>
+      <c r="T22" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U22" s="23" t="n"/>
+      <c r="V22" s="23" t="n"/>
+      <c r="W22" s="23" t="n"/>
+      <c r="X22" s="24" t="n"/>
+      <c r="Y22" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z22" s="23" t="n"/>
+      <c r="AA22" s="24" t="n"/>
+      <c r="AB22" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC22" s="23" t="n"/>
+      <c r="AD22" s="23" t="n"/>
+      <c r="AE22" s="24" t="n"/>
+    </row>
+    <row r="23" ht="18" customHeight="1">
+      <c r="B23" s="14" t="inlineStr">
+        <is>
+          <t>Layer_13</t>
+        </is>
+      </c>
+      <c r="C23" s="23" t="n"/>
+      <c r="D23" s="24" t="n"/>
+      <c r="E23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23" t="n"/>
+      <c r="G23" s="23" t="n"/>
+      <c r="H23" s="24" t="n"/>
+      <c r="I23" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J23" s="23" t="n"/>
+      <c r="K23" s="23" t="n"/>
+      <c r="L23" s="23" t="n"/>
+      <c r="M23" s="24" t="n"/>
+      <c r="N23" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O23" s="23" t="n"/>
+      <c r="P23" s="24" t="n"/>
+      <c r="Q23" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" s="23" t="n"/>
+      <c r="S23" s="24" t="n"/>
+      <c r="T23" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U23" s="23" t="n"/>
+      <c r="V23" s="23" t="n"/>
+      <c r="W23" s="23" t="n"/>
+      <c r="X23" s="24" t="n"/>
+      <c r="Y23" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z23" s="23" t="n"/>
+      <c r="AA23" s="24" t="n"/>
+      <c r="AB23" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC23" s="23" t="n"/>
+      <c r="AD23" s="23" t="n"/>
+      <c r="AE23" s="24" t="n"/>
+    </row>
+    <row r="24" ht="18" customHeight="1">
+      <c r="B24" s="14" t="inlineStr">
+        <is>
+          <t>Layer_14</t>
+        </is>
+      </c>
+      <c r="C24" s="23" t="n"/>
+      <c r="D24" s="24" t="n"/>
+      <c r="E24" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="23" t="n"/>
+      <c r="G24" s="23" t="n"/>
+      <c r="H24" s="24" t="n"/>
+      <c r="I24" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J24" s="23" t="n"/>
+      <c r="K24" s="23" t="n"/>
+      <c r="L24" s="23" t="n"/>
+      <c r="M24" s="24" t="n"/>
+      <c r="N24" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O24" s="23" t="n"/>
+      <c r="P24" s="24" t="n"/>
+      <c r="Q24" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R24" s="23" t="n"/>
+      <c r="S24" s="24" t="n"/>
+      <c r="T24" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U24" s="23" t="n"/>
+      <c r="V24" s="23" t="n"/>
+      <c r="W24" s="23" t="n"/>
+      <c r="X24" s="24" t="n"/>
+      <c r="Y24" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z24" s="23" t="n"/>
+      <c r="AA24" s="24" t="n"/>
+      <c r="AB24" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC24" s="23" t="n"/>
+      <c r="AD24" s="23" t="n"/>
+      <c r="AE24" s="24" t="n"/>
+    </row>
+    <row r="25" ht="18" customHeight="1">
+      <c r="B25" s="14" t="inlineStr">
+        <is>
+          <t>Layer_15</t>
+        </is>
+      </c>
+      <c r="C25" s="23" t="n"/>
+      <c r="D25" s="24" t="n"/>
+      <c r="E25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="23" t="n"/>
+      <c r="G25" s="23" t="n"/>
+      <c r="H25" s="24" t="n"/>
+      <c r="I25" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J25" s="23" t="n"/>
+      <c r="K25" s="23" t="n"/>
+      <c r="L25" s="23" t="n"/>
+      <c r="M25" s="24" t="n"/>
+      <c r="N25" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O25" s="23" t="n"/>
+      <c r="P25" s="24" t="n"/>
+      <c r="Q25" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R25" s="23" t="n"/>
+      <c r="S25" s="24" t="n"/>
+      <c r="T25" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U25" s="23" t="n"/>
+      <c r="V25" s="23" t="n"/>
+      <c r="W25" s="23" t="n"/>
+      <c r="X25" s="24" t="n"/>
+      <c r="Y25" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z25" s="23" t="n"/>
+      <c r="AA25" s="24" t="n"/>
+      <c r="AB25" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC25" s="23" t="n"/>
+      <c r="AD25" s="23" t="n"/>
+      <c r="AE25" s="24" t="n"/>
+    </row>
+    <row r="26" ht="18" customHeight="1">
+      <c r="B26" s="14" t="inlineStr">
+        <is>
+          <t>Layer_16</t>
+        </is>
+      </c>
+      <c r="C26" s="23" t="n"/>
+      <c r="D26" s="24" t="n"/>
+      <c r="E26" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="23" t="n"/>
+      <c r="G26" s="23" t="n"/>
+      <c r="H26" s="24" t="n"/>
+      <c r="I26" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J26" s="23" t="n"/>
+      <c r="K26" s="23" t="n"/>
+      <c r="L26" s="23" t="n"/>
+      <c r="M26" s="24" t="n"/>
+      <c r="N26" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O26" s="23" t="n"/>
+      <c r="P26" s="24" t="n"/>
+      <c r="Q26" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R26" s="23" t="n"/>
+      <c r="S26" s="24" t="n"/>
+      <c r="T26" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U26" s="23" t="n"/>
+      <c r="V26" s="23" t="n"/>
+      <c r="W26" s="23" t="n"/>
+      <c r="X26" s="24" t="n"/>
+      <c r="Y26" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z26" s="23" t="n"/>
+      <c r="AA26" s="24" t="n"/>
+      <c r="AB26" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC26" s="23" t="n"/>
+      <c r="AD26" s="23" t="n"/>
+      <c r="AE26" s="24" t="n"/>
+    </row>
+    <row r="27" ht="18" customHeight="1">
+      <c r="B27" s="14" t="inlineStr">
+        <is>
+          <t>Layer_17</t>
+        </is>
+      </c>
+      <c r="C27" s="23" t="n"/>
+      <c r="D27" s="24" t="n"/>
+      <c r="E27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="23" t="n"/>
+      <c r="G27" s="23" t="n"/>
+      <c r="H27" s="24" t="n"/>
+      <c r="I27" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J27" s="23" t="n"/>
+      <c r="K27" s="23" t="n"/>
+      <c r="L27" s="23" t="n"/>
+      <c r="M27" s="24" t="n"/>
+      <c r="N27" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O27" s="23" t="n"/>
+      <c r="P27" s="24" t="n"/>
+      <c r="Q27" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R27" s="23" t="n"/>
+      <c r="S27" s="24" t="n"/>
+      <c r="T27" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U27" s="23" t="n"/>
+      <c r="V27" s="23" t="n"/>
+      <c r="W27" s="23" t="n"/>
+      <c r="X27" s="24" t="n"/>
+      <c r="Y27" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z27" s="23" t="n"/>
+      <c r="AA27" s="24" t="n"/>
+      <c r="AB27" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC27" s="23" t="n"/>
+      <c r="AD27" s="23" t="n"/>
+      <c r="AE27" s="24" t="n"/>
+    </row>
+    <row r="28" ht="18" customHeight="1">
+      <c r="B28" s="14" t="inlineStr">
+        <is>
+          <t>Layer_18</t>
+        </is>
+      </c>
+      <c r="C28" s="23" t="n"/>
+      <c r="D28" s="24" t="n"/>
+      <c r="E28" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="23" t="n"/>
+      <c r="G28" s="23" t="n"/>
+      <c r="H28" s="24" t="n"/>
+      <c r="I28" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J28" s="23" t="n"/>
+      <c r="K28" s="23" t="n"/>
+      <c r="L28" s="23" t="n"/>
+      <c r="M28" s="24" t="n"/>
+      <c r="N28" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O28" s="23" t="n"/>
+      <c r="P28" s="24" t="n"/>
+      <c r="Q28" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R28" s="23" t="n"/>
+      <c r="S28" s="24" t="n"/>
+      <c r="T28" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U28" s="23" t="n"/>
+      <c r="V28" s="23" t="n"/>
+      <c r="W28" s="23" t="n"/>
+      <c r="X28" s="24" t="n"/>
+      <c r="Y28" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z28" s="23" t="n"/>
+      <c r="AA28" s="24" t="n"/>
+      <c r="AB28" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC28" s="23" t="n"/>
+      <c r="AD28" s="23" t="n"/>
+      <c r="AE28" s="24" t="n"/>
+    </row>
+    <row r="29" ht="18" customHeight="1">
+      <c r="B29" s="14" t="inlineStr">
+        <is>
+          <t>Layer_19</t>
+        </is>
+      </c>
+      <c r="C29" s="23" t="n"/>
+      <c r="D29" s="24" t="n"/>
+      <c r="E29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="23" t="n"/>
+      <c r="G29" s="23" t="n"/>
+      <c r="H29" s="24" t="n"/>
+      <c r="I29" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J29" s="23" t="n"/>
+      <c r="K29" s="23" t="n"/>
+      <c r="L29" s="23" t="n"/>
+      <c r="M29" s="24" t="n"/>
+      <c r="N29" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O29" s="23" t="n"/>
+      <c r="P29" s="24" t="n"/>
+      <c r="Q29" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R29" s="23" t="n"/>
+      <c r="S29" s="24" t="n"/>
+      <c r="T29" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U29" s="23" t="n"/>
+      <c r="V29" s="23" t="n"/>
+      <c r="W29" s="23" t="n"/>
+      <c r="X29" s="24" t="n"/>
+      <c r="Y29" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z29" s="23" t="n"/>
+      <c r="AA29" s="24" t="n"/>
+      <c r="AB29" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC29" s="23" t="n"/>
+      <c r="AD29" s="23" t="n"/>
+      <c r="AE29" s="24" t="n"/>
+    </row>
+    <row r="30" ht="18" customHeight="1">
+      <c r="B30" s="14" t="inlineStr">
+        <is>
+          <t>Layer_20</t>
+        </is>
+      </c>
+      <c r="C30" s="23" t="n"/>
+      <c r="D30" s="24" t="n"/>
+      <c r="E30" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="23" t="n"/>
+      <c r="G30" s="23" t="n"/>
+      <c r="H30" s="24" t="n"/>
+      <c r="I30" s="14" t="inlineStr">
+        <is>
+          <t>Saturated Sands</t>
+        </is>
+      </c>
+      <c r="J30" s="23" t="n"/>
+      <c r="K30" s="23" t="n"/>
+      <c r="L30" s="23" t="n"/>
+      <c r="M30" s="24" t="n"/>
+      <c r="N30" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O30" s="23" t="n"/>
+      <c r="P30" s="24" t="n"/>
+      <c r="Q30" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R30" s="23" t="n"/>
+      <c r="S30" s="24" t="n"/>
+      <c r="T30" s="14" t="inlineStr">
+        <is>
+          <t>80[(N₁)₆₀ᵢ]⁰.⁴</t>
+        </is>
+      </c>
+      <c r="U30" s="23" t="n"/>
+      <c r="V30" s="23" t="n"/>
+      <c r="W30" s="23" t="n"/>
+      <c r="X30" s="24" t="n"/>
+      <c r="Y30" s="14" t="n">
+        <v>200.951</v>
+      </c>
+      <c r="Z30" s="23" t="n"/>
+      <c r="AA30" s="24" t="n"/>
+      <c r="AB30" s="14" t="n">
+        <v>0.004976</v>
+      </c>
+      <c r="AC30" s="23" t="n"/>
+      <c r="AD30" s="23" t="n"/>
+      <c r="AE30" s="24" t="n"/>
+    </row>
+    <row r="31" ht="18" customHeight="1">
+      <c r="B31" s="14" t="inlineStr">
+        <is>
+          <t>Σtᵢ</t>
+        </is>
+      </c>
+      <c r="C31" s="23" t="n"/>
+      <c r="D31" s="24" t="n"/>
+      <c r="E31" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F31" s="23" t="n"/>
+      <c r="G31" s="23" t="n"/>
+      <c r="H31" s="24" t="n"/>
+      <c r="I31" s="29" t="n"/>
+      <c r="J31" s="30" t="n"/>
+      <c r="K31" s="30" t="n"/>
+      <c r="L31" s="30" t="n"/>
+      <c r="M31" s="30" t="n"/>
+      <c r="N31" s="29" t="n"/>
+      <c r="O31" s="30" t="n"/>
+      <c r="P31" s="30" t="n"/>
+      <c r="Q31" s="29" t="n"/>
+      <c r="R31" s="30" t="n"/>
+      <c r="S31" s="30" t="n"/>
+      <c r="T31" s="29" t="n"/>
+      <c r="U31" s="30" t="n"/>
+      <c r="V31" s="30" t="n"/>
+      <c r="W31" s="30" t="n"/>
+      <c r="X31" s="30" t="n"/>
+      <c r="Y31" s="14" t="inlineStr">
+        <is>
+          <t>Σ(tᵢ/Vₛᵢ)</t>
+        </is>
+      </c>
+      <c r="Z31" s="23" t="n"/>
+      <c r="AA31" s="24" t="n"/>
+      <c r="AB31" s="14" t="n">
+        <v>0.099527</v>
+      </c>
+      <c r="AC31" s="23" t="n"/>
+      <c r="AD31" s="23" t="n"/>
+      <c r="AE31" s="24" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="30" t="n"/>
+      <c r="C32" s="30" t="n"/>
+      <c r="D32" s="30" t="n"/>
+      <c r="E32" s="30" t="n"/>
+      <c r="F32" s="30" t="n"/>
+      <c r="G32" s="30" t="n"/>
+      <c r="H32" s="30" t="n"/>
+      <c r="I32" s="30" t="n"/>
+      <c r="J32" s="30" t="n"/>
+      <c r="K32" s="30" t="n"/>
+      <c r="L32" s="30" t="n"/>
+      <c r="M32" s="30" t="n"/>
+      <c r="N32" s="30" t="n"/>
+      <c r="O32" s="30" t="n"/>
+      <c r="P32" s="30" t="n"/>
+      <c r="Q32" s="30" t="n"/>
+      <c r="R32" s="30" t="n"/>
+      <c r="S32" s="30" t="n"/>
+      <c r="T32" s="30" t="n"/>
+      <c r="U32" s="30" t="n"/>
+      <c r="V32" s="30" t="n"/>
+      <c r="W32" s="30" t="n"/>
+      <c r="X32" s="30" t="n"/>
+      <c r="Y32" s="30" t="n"/>
+      <c r="Z32" s="30" t="n"/>
+      <c r="AA32" s="30" t="n"/>
+      <c r="AB32" s="30" t="n"/>
+      <c r="AC32" s="30" t="n"/>
+      <c r="AD32" s="30" t="n"/>
+      <c r="AE32" s="30" t="n"/>
+      <c r="AF32" s="30" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="30" t="n"/>
+      <c r="C33" s="30" t="n"/>
+      <c r="D33" s="30" t="n"/>
+      <c r="E33" s="30" t="n"/>
+      <c r="F33" s="30" t="n"/>
+      <c r="G33" s="30" t="n"/>
+      <c r="H33" s="30" t="n"/>
+      <c r="I33" s="30" t="n"/>
+      <c r="J33" s="30" t="n"/>
+      <c r="K33" s="30" t="n"/>
+      <c r="L33" s="30" t="n"/>
+      <c r="M33" s="30" t="n"/>
+      <c r="N33" s="30" t="n"/>
+      <c r="O33" s="30" t="n"/>
+      <c r="P33" s="30" t="n"/>
+      <c r="Q33" s="30" t="n"/>
+      <c r="R33" s="30" t="n"/>
+      <c r="S33" s="30" t="n"/>
+      <c r="T33" s="30" t="n"/>
+      <c r="U33" s="30" t="n"/>
+      <c r="V33" s="30" t="n"/>
+      <c r="W33" s="30" t="n"/>
+      <c r="X33" s="30" t="n"/>
+      <c r="Y33" s="30" t="n"/>
+      <c r="Z33" s="30" t="n"/>
+      <c r="AA33" s="30" t="n"/>
+      <c r="AB33" s="30" t="n"/>
+      <c r="AC33" s="30" t="n"/>
+      <c r="AD33" s="30" t="n"/>
+      <c r="AE33" s="30" t="n"/>
+      <c r="AF33" s="30" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="30" t="n"/>
+      <c r="C34" s="30" t="n"/>
+      <c r="D34" s="30" t="n"/>
+      <c r="E34" s="30" t="n"/>
+      <c r="F34" s="30" t="n"/>
+      <c r="G34" s="30" t="n"/>
+      <c r="H34" s="30" t="n"/>
+      <c r="I34" s="30" t="n"/>
+      <c r="J34" s="30" t="n"/>
+      <c r="K34" s="30" t="n"/>
+      <c r="L34" s="30" t="n"/>
+      <c r="M34" s="30" t="n"/>
+      <c r="N34" s="30" t="n"/>
+      <c r="O34" s="30" t="n"/>
+      <c r="P34" s="30" t="n"/>
+      <c r="Q34" s="30" t="n"/>
+      <c r="R34" s="30" t="n"/>
+      <c r="S34" s="30" t="n"/>
+      <c r="T34" s="30" t="n"/>
+      <c r="U34" s="30" t="n"/>
+      <c r="V34" s="30" t="n"/>
+      <c r="W34" s="30" t="n"/>
+      <c r="X34" s="30" t="n"/>
+      <c r="Y34" s="30" t="n"/>
+      <c r="Z34" s="30" t="n"/>
+      <c r="AA34" s="30" t="n"/>
+      <c r="AB34" s="30" t="n"/>
+      <c r="AC34" s="30" t="n"/>
+      <c r="AD34" s="30" t="n"/>
+      <c r="AE34" s="30" t="n"/>
+      <c r="AF34" s="30" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="30" t="n"/>
+      <c r="C35" s="30" t="n"/>
+      <c r="D35" s="30" t="n"/>
+      <c r="E35" s="30" t="n"/>
+      <c r="F35" s="30" t="n"/>
+      <c r="G35" s="30" t="n"/>
+      <c r="H35" s="30" t="n"/>
+      <c r="I35" s="30" t="n"/>
+      <c r="J35" s="30" t="n"/>
+      <c r="K35" s="30" t="n"/>
+      <c r="L35" s="30" t="n"/>
+      <c r="M35" s="30" t="n"/>
+      <c r="N35" s="30" t="n"/>
+      <c r="O35" s="30" t="n"/>
+      <c r="P35" s="30" t="n"/>
+      <c r="Q35" s="30" t="n"/>
+      <c r="R35" s="30" t="n"/>
+      <c r="S35" s="30" t="n"/>
+      <c r="T35" s="30" t="n"/>
+      <c r="U35" s="30" t="n"/>
+      <c r="V35" s="30" t="n"/>
+      <c r="W35" s="30" t="n"/>
+      <c r="X35" s="30" t="n"/>
+      <c r="Y35" s="30" t="n"/>
+      <c r="Z35" s="30" t="n"/>
+      <c r="AA35" s="30" t="n"/>
+      <c r="AB35" s="30" t="n"/>
+      <c r="AC35" s="30" t="n"/>
+      <c r="AD35" s="30" t="n"/>
+      <c r="AE35" s="30" t="n"/>
+      <c r="AF35" s="30" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="30" t="n"/>
+      <c r="C36" s="30" t="n"/>
+      <c r="D36" s="30" t="n"/>
+      <c r="E36" s="30" t="n"/>
+      <c r="F36" s="30" t="n"/>
+      <c r="G36" s="30" t="n"/>
+      <c r="H36" s="30" t="n"/>
+      <c r="I36" s="30" t="n"/>
+      <c r="J36" s="30" t="n"/>
+      <c r="K36" s="30" t="n"/>
+      <c r="L36" s="30" t="n"/>
+      <c r="M36" s="30" t="n"/>
+      <c r="N36" s="30" t="n"/>
+      <c r="O36" s="30" t="n"/>
+      <c r="P36" s="30" t="n"/>
+      <c r="Q36" s="30" t="n"/>
+      <c r="R36" s="30" t="n"/>
+      <c r="S36" s="30" t="n"/>
+      <c r="T36" s="30" t="n"/>
+      <c r="U36" s="30" t="n"/>
+      <c r="V36" s="30" t="n"/>
+      <c r="W36" s="30" t="n"/>
+      <c r="X36" s="30" t="n"/>
+      <c r="Y36" s="30" t="n"/>
+      <c r="Z36" s="30" t="n"/>
+      <c r="AA36" s="30" t="n"/>
+      <c r="AB36" s="30" t="n"/>
+      <c r="AC36" s="30" t="n"/>
+      <c r="AD36" s="30" t="n"/>
+      <c r="AE36" s="30" t="n"/>
+      <c r="AF36" s="30" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="30" t="n"/>
+      <c r="C37" s="30" t="n"/>
+      <c r="D37" s="30" t="n"/>
+      <c r="E37" s="30" t="n"/>
+      <c r="F37" s="30" t="n"/>
+      <c r="G37" s="30" t="n"/>
+      <c r="H37" s="30" t="n"/>
+      <c r="I37" s="30" t="n"/>
+      <c r="J37" s="30" t="n"/>
+      <c r="K37" s="30" t="n"/>
+      <c r="L37" s="30" t="n"/>
+      <c r="M37" s="30" t="n"/>
+      <c r="N37" s="30" t="n"/>
+      <c r="O37" s="30" t="n"/>
+      <c r="P37" s="30" t="n"/>
+      <c r="Q37" s="30" t="n"/>
+      <c r="R37" s="30" t="n"/>
+      <c r="S37" s="30" t="n"/>
+      <c r="T37" s="30" t="n"/>
+      <c r="U37" s="30" t="n"/>
+      <c r="V37" s="30" t="n"/>
+      <c r="W37" s="30" t="n"/>
+      <c r="X37" s="30" t="n"/>
+      <c r="Y37" s="30" t="n"/>
+      <c r="Z37" s="30" t="n"/>
+      <c r="AA37" s="30" t="n"/>
+      <c r="AB37" s="30" t="n"/>
+      <c r="AC37" s="30" t="n"/>
+      <c r="AD37" s="30" t="n"/>
+      <c r="AE37" s="30" t="n"/>
+      <c r="AF37" s="30" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="30" t="n"/>
+      <c r="C38" s="30" t="n"/>
+      <c r="D38" s="30" t="n"/>
+      <c r="E38" s="30" t="n"/>
+      <c r="F38" s="30" t="n"/>
+      <c r="G38" s="30" t="n"/>
+      <c r="H38" s="30" t="n"/>
+      <c r="I38" s="30" t="n"/>
+      <c r="J38" s="30" t="n"/>
+      <c r="K38" s="30" t="n"/>
+      <c r="L38" s="30" t="n"/>
+      <c r="M38" s="30" t="n"/>
+      <c r="N38" s="30" t="n"/>
+      <c r="O38" s="30" t="n"/>
+      <c r="P38" s="30" t="n"/>
+      <c r="Q38" s="30" t="n"/>
+      <c r="R38" s="30" t="n"/>
+      <c r="S38" s="30" t="n"/>
+      <c r="T38" s="30" t="n"/>
+      <c r="U38" s="30" t="n"/>
+      <c r="V38" s="30" t="n"/>
+      <c r="W38" s="30" t="n"/>
+      <c r="X38" s="30" t="n"/>
+      <c r="Y38" s="30" t="n"/>
+      <c r="Z38" s="30" t="n"/>
+      <c r="AA38" s="30" t="n"/>
+      <c r="AB38" s="30" t="n"/>
+      <c r="AC38" s="30" t="n"/>
+      <c r="AD38" s="30" t="n"/>
+      <c r="AE38" s="30" t="n"/>
+      <c r="AF38" s="30" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="30" t="n"/>
+      <c r="C39" s="30" t="n"/>
+      <c r="D39" s="30" t="n"/>
+      <c r="E39" s="30" t="n"/>
+      <c r="F39" s="30" t="n"/>
+      <c r="G39" s="30" t="n"/>
+      <c r="H39" s="30" t="n"/>
+      <c r="I39" s="30" t="n"/>
+      <c r="J39" s="30" t="n"/>
+      <c r="K39" s="30" t="n"/>
+      <c r="L39" s="30" t="n"/>
+      <c r="M39" s="30" t="n"/>
+      <c r="N39" s="30" t="n"/>
+      <c r="O39" s="30" t="n"/>
+      <c r="P39" s="30" t="n"/>
+      <c r="Q39" s="30" t="n"/>
+      <c r="R39" s="30" t="n"/>
+      <c r="S39" s="30" t="n"/>
+      <c r="T39" s="30" t="n"/>
+      <c r="U39" s="30" t="n"/>
+      <c r="V39" s="30" t="n"/>
+      <c r="W39" s="30" t="n"/>
+      <c r="X39" s="30" t="n"/>
+      <c r="Y39" s="30" t="n"/>
+      <c r="Z39" s="30" t="n"/>
+      <c r="AA39" s="30" t="n"/>
+      <c r="AB39" s="30" t="n"/>
+      <c r="AC39" s="30" t="n"/>
+      <c r="AD39" s="30" t="n"/>
+      <c r="AE39" s="30" t="n"/>
+      <c r="AF39" s="30" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="197">
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="Q14:S14"/>
     <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="I30:M30"/>
     <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Q23:S23"/>
     <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Q31:S31"/>
     <mergeCell ref="AH18:AL18"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N28:P28"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="AB20:AE20"/>
     <mergeCell ref="AB14:AE14"/>
     <mergeCell ref="T11:X11"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="Q25:S25"/>
     <mergeCell ref="E10:H10"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="Y20:AA20"/>
     <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y29:AA29"/>
     <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="Q19:S19"/>
     <mergeCell ref="AJ12:AN12"/>
     <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="T20:X20"/>
     <mergeCell ref="T14:X14"/>
+    <mergeCell ref="T29:X29"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="I11:M11"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y31:AA31"/>
     <mergeCell ref="AJ14:AN14"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="Y28:AA28"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="AG13:AI13"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I28:M28"/>
     <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="AG15:AI15"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="Y23:AA23"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="N20:P20"/>
     <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q18:S18"/>
     <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Y19:AA19"/>
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="AJ11:AN11"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I27:M27"/>
     <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="AB24:AE24"/>
     <mergeCell ref="T9:AA9"/>
     <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="Q17:S17"/>
     <mergeCell ref="AJ13:AN13"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="AB26:AE26"/>
     <mergeCell ref="AG14:AI14"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="N27:P27"/>
     <mergeCell ref="AJ15:AN15"/>
+    <mergeCell ref="E29:H29"/>
     <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="AB25:AE25"/>
     <mergeCell ref="Q12:S12"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="AL17:AM17"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="T13:X13"/>
     <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="N25:P25"/>
     <mergeCell ref="AG9:AN10"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I29:M29"/>
     <mergeCell ref="T16:X16"/>
+    <mergeCell ref="AB27:AE27"/>
     <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="E15:H15"/>
+    <mergeCell ref="T27:X27"/>
     <mergeCell ref="N9:P10"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="T18:X18"/>
     <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Y21:AA21"/>
     <mergeCell ref="I15:M15"/>
     <mergeCell ref="AB9:AE10"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="N29:P29"/>
     <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="T25:X25"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="N13:P13"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="Y27:AA27"/>
     <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="I18:M18"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="I9:M10"/>
     <mergeCell ref="E17:H17"/>
+    <mergeCell ref="N24:P24"/>
     <mergeCell ref="T12:X12"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="E28:H28"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="Q28:S28"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="N16:P16"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B9:D10"/>
     <mergeCell ref="E11:H11"/>
+    <mergeCell ref="Q20:S20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
